--- a/data/20170316_Hernandez-Pacheco-et-al.xlsx
+++ b/data/20170316_Hernandez-Pacheco-et-al.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brettell/Documents/Repositories/racist_hypothesis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brettell/Documents/Repositories/human_traits_fst/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F60CB-ABEA-7546-B18C-D5213790F2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F1A69-E736-484A-8608-5ECFA8D87D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="2380" windowWidth="26840" windowHeight="15540" xr2:uid="{B41A527F-61E8-F249-A6EB-6824DD519A37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B41A527F-61E8-F249-A6EB-6824DD519A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>rs35397</t>
   </si>
@@ -62,45 +62,953 @@
     <t>rs11637235</t>
   </si>
   <si>
-    <t>p_value</t>
-  </si>
-  <si>
-    <t>2.05e−8</t>
-  </si>
-  <si>
-    <t>9.71e−10</t>
-  </si>
-  <si>
-    <t>6.14e−9</t>
-  </si>
-  <si>
-    <t>4.58e−9</t>
-  </si>
-  <si>
-    <t>2.98e−14</t>
-  </si>
-  <si>
-    <t>2.62e−14</t>
-  </si>
-  <si>
-    <t>3.70e−14</t>
-  </si>
-  <si>
-    <t>1.62e−10</t>
-  </si>
-  <si>
-    <t>3.34e−10</t>
-  </si>
-  <si>
-    <t>rsid</t>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>Chromosome band</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Nearest gene(s)</t>
+  </si>
+  <si>
+    <t>A1/A2</t>
+  </si>
+  <si>
+    <t>Discovery sample (n = 285)</t>
+  </si>
+  <si>
+    <t>Replication sample (n = 373)</t>
+  </si>
+  <si>
+    <t>Meta-analysis</t>
+  </si>
+  <si>
+    <r>
+      <t>Freq.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">β (95%CI) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>rs79592764</t>
+  </si>
+  <si>
+    <t>3q27.3</t>
+  </si>
+  <si>
+    <t>SST-RTP2</t>
+  </si>
+  <si>
+    <t>T/C</t>
+  </si>
+  <si>
+    <t>6.38 (1.34 to 9.02)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.47 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>3.61 (0.48 to 6.73)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.43 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−2</t>
+    </r>
+  </si>
+  <si>
+    <t>5.23 (3.21 to 7.24)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.84 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>5p13.2</t>
+  </si>
+  <si>
+    <t>SLC45A2</t>
+  </si>
+  <si>
+    <t>T/G</t>
+  </si>
+  <si>
+    <t>−2.49 (−3.53 to −1.45)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.19 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>−3.29 (−5.35 to −1.24)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.81 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−3</t>
+    </r>
+  </si>
+  <si>
+    <t>−2.66 (−3.58 to −1.73)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.05 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−8</t>
+    </r>
+  </si>
+  <si>
+    <t>G/C</t>
+  </si>
+  <si>
+    <t>−2.66 (−3.67 to −1.65)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.27 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>−3.74 (−5.92 to −1.56)</t>
+  </si>
+  <si>
+    <r>
+      <t>8.36 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−4</t>
+    </r>
+  </si>
+  <si>
+    <t>−2.85 (−3.77 to −1.94)</t>
+  </si>
+  <si>
+    <r>
+      <t>9.71 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−10</t>
+    </r>
+  </si>
+  <si>
+    <t>10p13</t>
+  </si>
+  <si>
+    <t>BEND7-PRPF18</t>
+  </si>
+  <si>
+    <t>C/T</t>
+  </si>
+  <si>
+    <t>4.72 (2.89 to 6.54)</t>
+  </si>
+  <si>
+    <r>
+      <t>7.27 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>3.14 (1.13 to 5.15)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.34 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−3</t>
+    </r>
+  </si>
+  <si>
+    <t>4.01 (2.66 to 5.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>6.14 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−9</t>
+    </r>
+  </si>
+  <si>
+    <t>G/A</t>
+  </si>
+  <si>
+    <t>3.20 (1.20 to 5.19)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.80 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−3</t>
+    </r>
+  </si>
+  <si>
+    <t>4.03 (2.68 to 5.37)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.58 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−9</t>
+    </r>
+  </si>
+  <si>
+    <t>15q21.1</t>
+  </si>
+  <si>
+    <t>SLC24A5</t>
+  </si>
+  <si>
+    <t>3.31 (2.14 to 4.47)</t>
+  </si>
+  <si>
+    <r>
+      <t>5.83 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−8</t>
+    </r>
+  </si>
+  <si>
+    <t>5.57 (3.59 to 7.55)</t>
+  </si>
+  <si>
+    <r>
+      <t>6.60 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−8</t>
+    </r>
+  </si>
+  <si>
+    <t>3.89 (2.89 to 4.89)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.98 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−14</t>
+    </r>
+  </si>
+  <si>
+    <t>3.06 (1.96 to 4.16)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.02 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>5.90 (3.91 to 7.89)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.31 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.36 (1.58 to 7.13) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.62 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−14 c</t>
+    </r>
+  </si>
+  <si>
+    <t>5.60 (3.63 to 7.57)</t>
+  </si>
+  <si>
+    <r>
+      <t>5.08 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.31 (2.08 to 6.53) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.70 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−14 c</t>
+    </r>
+  </si>
+  <si>
+    <t>MYEF2</t>
+  </si>
+  <si>
+    <t>A/G</t>
+  </si>
+  <si>
+    <t>−2.95 (−4.22 to −1.68)</t>
+  </si>
+  <si>
+    <r>
+      <t>7.99 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>−3.96 (5.65 to −2.27)</t>
+  </si>
+  <si>
+    <r>
+      <t>6.15 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>−3.31 (−4.33 to −2.30)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.62 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−10</t>
+    </r>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>−2.26 (−3.24 to −1.28)</t>
+  </si>
+  <si>
+    <r>
+      <t>9.61 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>−5.71 (−7.93 to −3.48)</t>
+  </si>
+  <si>
+    <r>
+      <t>7.76 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">−3.83 (−7.20 to −0.46) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.34 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−10 c</t>
+    </r>
+  </si>
+  <si>
+    <t>rs2899446</t>
+  </si>
+  <si>
+    <t>15q21.2</t>
+  </si>
+  <si>
+    <t>ATP8B4</t>
+  </si>
+  <si>
+    <t>2.28 (1.34 to 3.21)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.73 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>2.30 (0.15 to 4.45)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.67 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−2</t>
+    </r>
+  </si>
+  <si>
+    <t>2.28 (1.43 to 3.14)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.72 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>rs8033655</t>
+  </si>
+  <si>
+    <t>2.36 (0.21 to 4.51)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.24 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−2</t>
+    </r>
+  </si>
+  <si>
+    <t>2.29 (1.43 to 3.14)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.54 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <t>rs7180182</t>
+  </si>
+  <si>
+    <t>rs6142102</t>
+  </si>
+  <si>
+    <t>20q11.22</t>
+  </si>
+  <si>
+    <t>EIF2S2-ASIP</t>
+  </si>
+  <si>
+    <t>2.24 (1.28 to 3.20)</t>
+  </si>
+  <si>
+    <r>
+      <t>7.28 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <t>2.12 (0.42 to 3.82)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.52 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−2</t>
+    </r>
+  </si>
+  <si>
+    <t>2.21 (1.38 to 3.05)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.22 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Freq.: Frequency of the effect allele; </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect size for the effect alleles (additive model); </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Random effect model was used since heterogeneity was found between the discovery and replication samples. Abbreviations: A1: Effect allele; A2: Non-effect allele; CI: confidence interval.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,8 +1036,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,98 +1355,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC883D-1E5E-E24D-83F9-7D1B0C16DF5B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>187398936</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>0.08</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>33951116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>0.217</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>33951693</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>0.189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>13605982</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>13606490</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>48400199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>48426484</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>0.312</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>48433494</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>48460188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>48633153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12">
+        <v>0.183</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>50307416</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <v>50308950</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>50310295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>32704627</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16">
+        <v>0.42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>